--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,21 +46,21 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -70,12 +70,15 @@
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>broken</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
@@ -85,72 +88,81 @@
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -163,10 +175,13 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -178,16 +193,16 @@
     <t>loves</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.796875</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.7634408602150538</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.59375</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,37 +838,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C7">
+        <v>138</v>
+      </c>
+      <c r="D7">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7">
-        <v>54</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K7">
-        <v>0.5849056603773585</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7365591397849462</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C8">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.3688524590163935</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>770</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7281553398058253</v>
+        <v>0.703125</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K9">
-        <v>0.3400286944045911</v>
+        <v>0.3721311475409836</v>
       </c>
       <c r="L9">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="M9">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>460</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6486486486486487</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.2925311203319502</v>
+        <v>0.3405172413793103</v>
       </c>
       <c r="L10">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="M10">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>341</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.2916666666666667</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>85</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.2409638554216867</v>
+        <v>0.2324159021406728</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>126</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5555555555555556</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.2110091743119266</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4956521739130435</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D14">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.2063492063492063</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4631578947368421</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.1183172655565294</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L15">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1006</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4330708661417323</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,45 +1306,45 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.05714285714285714</v>
+        <v>0.1095530236634531</v>
       </c>
       <c r="L16">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4265402843601896</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C17">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,21 +1356,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17">
+        <v>0.05909090909090909</v>
+      </c>
+      <c r="L17">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>92</v>
+      </c>
+      <c r="N17">
+        <v>0.99</v>
+      </c>
+      <c r="O17">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4096385542168675</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1367,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3861386138613861</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C19">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1393,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1419,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3707865168539326</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1445,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3076923076923077</v>
+        <v>0.3125</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1471,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2319587628865979</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1497,47 +1536,47 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.224368499257058</v>
+        <v>0.2356687898089172</v>
       </c>
       <c r="C24">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2101910828025478</v>
+        <v>0.215</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1549,47 +1588,47 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.2080237741456167</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1993670886075949</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1601,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1956521739130435</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1627,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1835443037974684</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1653,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1635514018691589</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1679,47 +1718,47 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1613832853025937</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1607929515418502</v>
+        <v>0.15625</v>
       </c>
       <c r="C32">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1731,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>381</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1739,25 +1778,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1278195488721804</v>
+        <v>0.1469740634005764</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>232</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1765,25 +1804,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.126027397260274</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>319</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1791,13 +1830,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.09859154929577464</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1809,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>320</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1817,25 +1856,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.09390444810543658</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C36">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>550</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1843,13 +1882,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0779510022271715</v>
+        <v>0.1205479452054795</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1861,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>414</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1869,25 +1908,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.07226107226107226</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>398</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1895,25 +1934,129 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.05196451204055767</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="C39">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0.02</v>
+      </c>
+      <c r="F39">
+        <v>0.98</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.08745874587458746</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>0.96</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E39">
-        <v>0.11</v>
-      </c>
-      <c r="F39">
-        <v>0.89</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>748</v>
+      <c r="B41">
+        <v>0.08732394366197183</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.05590851334180432</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>0.14</v>
+      </c>
+      <c r="F42">
+        <v>0.86</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.04769230769230769</v>
+      </c>
+      <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>0.14</v>
+      </c>
+      <c r="F43">
+        <v>0.86</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
